--- a/EndothelialCluster15.xlsx
+++ b/EndothelialCluster15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Gene Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Analysis-Genes-Endothelial-Cells-Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF89F69-2BCF-45B3-BAB0-283175E3F53C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031C0EBD-9B2F-41A9-AB54-AC45B7D6FA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="480" windowWidth="7570" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="180">
   <si>
-    <t>Gene Name</t>
-  </si>
-  <si>
-    <t>Gene Type</t>
-  </si>
-  <si>
-    <t>Max Expression</t>
-  </si>
-  <si>
-    <t>Max Cluster</t>
-  </si>
-  <si>
-    <t>Second Cluster</t>
-  </si>
-  <si>
     <t>Protein Coding</t>
   </si>
   <si>
@@ -565,6 +550,21 @@
   </si>
   <si>
     <t>Rgl1</t>
+  </si>
+  <si>
+    <t>GeneName</t>
+  </si>
+  <si>
+    <t>GeneType</t>
+  </si>
+  <si>
+    <t>MaxExpression</t>
+  </si>
+  <si>
+    <t>MaxCluster</t>
+  </si>
+  <si>
+    <t>SecondCluster</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,27 +899,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>492</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>512</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>443</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>609</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>421</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>680</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>480</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>588</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>405</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>493</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>541</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>461</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>422</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>469</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>457</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>430</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>673</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>539</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>478</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>466</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>525</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>414</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>397</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>425</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>488</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>419</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>485</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>417</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>438</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>404</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>417</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>514</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>700</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>426</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>340</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>404</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>573</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>934</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>311</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>492</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>483</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>784</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>425</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>464</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>499</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>625</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>448</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>410</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>353</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>409</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>460</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>476</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>501</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>615</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>800</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>429</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>445</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>590</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>473</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>505</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>576</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>445</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>576</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>566</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>512</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>1140</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>415</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>563</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>570</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>484</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>380</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>444</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>428</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>348</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>446</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>430</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>991</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>620</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>478</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>694</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>420</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>450</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>481</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>539</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>495</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>436</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>416</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>443</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>607</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>549</v>
@@ -2446,10 +2446,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>614</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>499</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>567</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>560</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>554</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>484</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>648</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>482</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>549</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>435</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>780</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>436</v>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>538</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>774</v>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>455</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>814</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>526</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>536</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>400</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>674</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>609</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>446</v>
@@ -2820,10 +2820,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>427</v>
@@ -2837,10 +2837,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>619</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>478</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>409</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>548</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>611</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>640</v>
@@ -2939,10 +2939,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>757</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>440</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>352</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>477</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>377</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>318</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>876</v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>640</v>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>640</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>503</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>622</v>
@@ -3126,10 +3126,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>719</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>637</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>441</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>462</v>
@@ -3194,10 +3194,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>371</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>657</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>743</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <v>570</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>570</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>434</v>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>520</v>
@@ -3313,10 +3313,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>567</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <v>633</v>
@@ -3347,10 +3347,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>1100</v>
@@ -3364,10 +3364,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>663</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>1030</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>552</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C149">
         <v>932</v>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>549</v>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C151">
         <v>891</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C152">
         <v>877</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>648</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C154">
         <v>450</v>
@@ -3517,10 +3517,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>629</v>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>703</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>745</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>551</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>466</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>782</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>804</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>549</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>583</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>747</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>804</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>626</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>748</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>867</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>435</v>
@@ -3772,10 +3772,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>811</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>804</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>913</v>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C173">
         <v>528</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>471</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>669</v>
@@ -3874,10 +3874,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C176">
         <v>531</v>
